--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -582,21 +585,19 @@
       <c r="B2" s="2">
         <v>40878</v>
       </c>
-      <c r="C2" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.70833333333333337</v>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="12">
-        <f>IF(MINUTE(C2)&lt;=MINUTE(D2),IF(E2="NO",HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1),IF(E2="NO",HOUR(D2)-HOUR(C2)-1,HOUR(D2)-HOUR(C2)-1-1))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G5" si="0">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>0</v>
       </c>
     </row>
@@ -611,18 +612,18 @@
         <v>0.375</v>
       </c>
       <c r="D3" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F23" si="1">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
-        <v>8</v>
+        <f t="shared" ref="F3:F23" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
+        <v>9</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G2:G5" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
+        <v>30</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6"/>
@@ -634,21 +635,19 @@
       <c r="B4" s="2">
         <v>40882</v>
       </c>
-      <c r="C4" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.70833333333333337</v>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -663,18 +662,18 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,18 +687,18 @@
         <v>0.375</v>
       </c>
       <c r="D6" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G6" s="12">
         <f>IF(MINUTE(D6)-MINUTE(C6)&lt;0,MINUTE(D6)-MINUTE(C6)+60,MINUTE(D6)-MINUTE(C6))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
@@ -711,21 +710,19 @@
       <c r="B7" s="2">
         <v>40885</v>
       </c>
-      <c r="C7" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.70833333333333304</v>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ref="G7:G23" si="2">IF(MINUTE(D7)-MINUTE(C7)&lt;0,MINUTE(D7)-MINUTE(C7)+60,MINUTE(D7)-MINUTE(C7))</f>
         <v>0</v>
       </c>
     </row>
@@ -740,18 +737,18 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G7:G23" si="2">IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
+        <v>30</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -766,18 +763,18 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G9" s="12">
         <f>IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,18 +788,18 @@
         <v>0.375</v>
       </c>
       <c r="D10" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -816,14 +813,14 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -840,14 +837,14 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
@@ -864,18 +861,18 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -889,18 +886,18 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,18 +911,18 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,18 +936,18 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,18 +961,18 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,18 +986,18 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,18 +1011,18 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,18 +1036,18 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,18 +1061,18 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,18 +1086,18 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,18 +1111,18 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="14">
-        <v>0.70833333333333304</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,11 +1131,11 @@
       </c>
       <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -609,10 +609,10 @@
         <v>40879</v>
       </c>
       <c r="C3" s="14">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D3" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -622,8 +622,8 @@
         <v>9</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G2:G5" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
-        <v>30</v>
+        <f t="shared" ref="G3:G5" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
+        <v>0</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6"/>
@@ -747,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ref="G7:G23" si="2">IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
+        <f t="shared" ref="G8:G23" si="2">IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
         <v>30</v>
       </c>
       <c r="I8" s="8"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="F25" s="15">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" s="16"/>
     </row>

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -18,52 +18,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora Entrada</t>
+  </si>
+  <si>
+    <t>Hora Salida</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Día</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Hora Entrada</t>
-  </si>
-  <si>
-    <t>Hora Salida</t>
-  </si>
-  <si>
-    <t>Almuerzo</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Minutos</t>
-  </si>
-  <si>
-    <t>Lunes</t>
-  </si>
-  <si>
-    <t>Martes</t>
-  </si>
-  <si>
-    <t>Miércoles</t>
-  </si>
-  <si>
-    <t>Jueves</t>
-  </si>
-  <si>
-    <t>Viernes</t>
-  </si>
-  <si>
-    <t>SUMA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +241,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,42 +566,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>40878</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="12">
         <v>0</v>
@@ -603,7 +612,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>40879</v>
@@ -612,17 +621,17 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" s="14">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F23" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G5" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
+        <f t="shared" ref="G3" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
         <v>0</v>
       </c>
       <c r="H3" s="7"/>
@@ -630,19 +639,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>40882</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -653,48 +662,46 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>40883</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.77083333333333337</v>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>40884</v>
       </c>
       <c r="C6" s="14">
-        <v>0.375</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D6" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="12">
         <f>IF(MINUTE(D6)-MINUTE(C6)&lt;0,MINUTE(D6)-MINUTE(C6)+60,MINUTE(D6)-MINUTE(C6))</f>
@@ -704,31 +711,33 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15">
         <v>40885</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
+      <c r="C7" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="12">
-        <v>0</v>
+        <f t="shared" ref="F7:F8" si="2">IF(MINUTE(C7)&lt;=MINUTE(D7),IF(E7="NO",HOUR(D7)-HOUR(C7),HOUR(D7)-HOUR(C7)-1),IF(E7="NO",HOUR(D7)-HOUR(C7)-1,HOUR(D7)-HOUR(C7)-1-1))</f>
+        <v>9</v>
       </c>
       <c r="G7" s="12">
+        <f t="shared" ref="G7:G8" si="3">IF(MINUTE(D7)-MINUTE(C7)&lt;0,MINUTE(D7)-MINUTE(C7)+60,MINUTE(D7)-MINUTE(C7))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>40886</v>
@@ -737,24 +746,24 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ref="G8:G23" si="2">IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>40889</v>
@@ -763,10 +772,10 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="14">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
@@ -774,12 +783,12 @@
       </c>
       <c r="G9" s="12">
         <f>IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>40890</v>
@@ -788,23 +797,23 @@
         <v>0.375</v>
       </c>
       <c r="D10" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G10:G23" si="4">IF(MINUTE(D10)-MINUTE(C10)&lt;0,MINUTE(D10)-MINUTE(C10)+60,MINUTE(D10)-MINUTE(C10))</f>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>40891</v>
@@ -813,22 +822,23 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="F11:F23" si="5">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <v>10</v>
       </c>
       <c r="G11" s="12">
+        <f t="shared" ref="G11:G23" si="6">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>40892</v>
@@ -837,22 +847,23 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G12" s="12">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>40893</v>
@@ -861,23 +872,23 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>40896</v>
@@ -886,23 +897,23 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>40897</v>
@@ -911,23 +922,23 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>40898</v>
@@ -936,23 +947,23 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
         <v>40899</v>
@@ -961,23 +972,23 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
         <v>40900</v>
@@ -986,23 +997,23 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>40903</v>
@@ -1011,23 +1022,23 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>40904</v>
@@ -1036,23 +1047,23 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G20" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>40905</v>
@@ -1061,23 +1072,23 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>40906</v>
@@ -1086,23 +1097,23 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="14">
-        <v>0.77083333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
         <v>40907</v>
@@ -1114,39 +1125,39 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15">
+        <v>12</v>
+      </c>
+      <c r="F25" s="16">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>175</v>
-      </c>
-      <c r="G25" s="16"/>
+        <v>176</v>
+      </c>
+      <c r="G25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F23" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
+        <f t="shared" ref="F3:F10" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
         <v>10</v>
       </c>
       <c r="G3" s="12">
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" ref="G10:G23" si="4">IF(MINUTE(D10)-MINUTE(C10)&lt;0,MINUTE(D10)-MINUTE(C10)+60,MINUTE(D10)-MINUTE(C10))</f>
+        <f t="shared" ref="G10" si="4">IF(MINUTE(D10)-MINUTE(C10)&lt;0,MINUTE(D10)-MINUTE(C10)+60,MINUTE(D10)-MINUTE(C10))</f>
         <v>30</v>
       </c>
     </row>

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Día</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,20 +235,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,10 +586,10 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -594,19 +600,19 @@
       <c r="B2" s="2">
         <v>40878</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -617,20 +623,20 @@
       <c r="B3" s="2">
         <v>40879</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>0.83333333333333337</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F10" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F9" si="0">IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="11">
         <f t="shared" ref="G3" si="1">IF(MINUTE(D3)-MINUTE(C3)&lt;0,MINUTE(D3)-MINUTE(C3)+60,MINUTE(D3)-MINUTE(C3))</f>
         <v>0</v>
       </c>
@@ -644,19 +650,19 @@
       <c r="B4" s="2">
         <v>40882</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -667,19 +673,19 @@
       <c r="B5" s="2">
         <v>40883</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -690,49 +696,49 @@
       <c r="B6" s="2">
         <v>40884</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D6" s="14">
-        <v>0.75694444444444453</v>
+      <c r="D6" s="12">
+        <v>0.81944444444444453</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(MINUTE(D6)-MINUTE(C6)&lt;0,MINUTE(D6)-MINUTE(C6)+60,MINUTE(D6)-MINUTE(C6))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>40885</v>
       </c>
-      <c r="C7" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.75</v>
+      <c r="C7" s="12">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.82291666666666663</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" ref="F7:F8" si="2">IF(MINUTE(C7)&lt;=MINUTE(D7),IF(E7="NO",HOUR(D7)-HOUR(C7),HOUR(D7)-HOUR(C7)-1),IF(E7="NO",HOUR(D7)-HOUR(C7)-1,HOUR(D7)-HOUR(C7)-1-1))</f>
-        <v>9</v>
-      </c>
-      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11">
         <f t="shared" ref="G7:G8" si="3">IF(MINUTE(D7)-MINUTE(C7)&lt;0,MINUTE(D7)-MINUTE(C7)+60,MINUTE(D7)-MINUTE(C7))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -742,22 +748,22 @@
       <c r="B8" s="2">
         <v>40886</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>0.375</v>
       </c>
-      <c r="D8" s="14">
-        <v>0.75</v>
+      <c r="D8" s="12">
+        <v>0.8125</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G8" s="12">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -768,22 +774,22 @@
       <c r="B9" s="2">
         <v>40889</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.75</v>
+      <c r="C9" s="12">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.81944444444444453</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G9" s="12">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,22 +799,20 @@
       <c r="B10" s="2">
         <v>40890</v>
       </c>
-      <c r="C10" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.72916666666666663</v>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" ref="G10" si="4">IF(MINUTE(D10)-MINUTE(C10)&lt;0,MINUTE(D10)-MINUTE(C10)+60,MINUTE(D10)-MINUTE(C10))</f>
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -818,21 +822,21 @@
       <c r="B11" s="2">
         <v>40891</v>
       </c>
-      <c r="C11" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" ref="F11:F23" si="5">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
-        <v>10</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" ref="G11:G23" si="6">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
+      <c r="C11" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" ref="F11:F23" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" ref="G11:G23" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
         <v>0</v>
       </c>
     </row>
@@ -843,22 +847,22 @@
       <c r="B12" s="2">
         <v>40892</v>
       </c>
-      <c r="C12" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.79166666666666663</v>
+      <c r="C12" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="11">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,22 +872,22 @@
       <c r="B13" s="2">
         <v>40893</v>
       </c>
-      <c r="C13" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.79166666666666663</v>
+      <c r="C13" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.82291666666666663</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="11">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,21 +897,19 @@
       <c r="B14" s="2">
         <v>40896</v>
       </c>
-      <c r="C14" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.79166666666666663</v>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -918,21 +920,21 @@
       <c r="B15" s="2">
         <v>40897</v>
       </c>
-      <c r="C15" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.79166666666666663</v>
+      <c r="C15" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="11">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -943,22 +945,22 @@
       <c r="B16" s="2">
         <v>40898</v>
       </c>
-      <c r="C16" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.79166666666666663</v>
+      <c r="C16" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="11">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,21 +970,21 @@
       <c r="B17" s="2">
         <v>40899</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>0.375</v>
       </c>
-      <c r="D17" s="14">
-        <v>0.79166666666666663</v>
+      <c r="D17" s="12">
+        <v>0.75</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="11">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -993,22 +995,20 @@
       <c r="B18" s="2">
         <v>40900</v>
       </c>
-      <c r="C18" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.77083333333333337</v>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,22 +1018,22 @@
       <c r="B19" s="2">
         <v>40903</v>
       </c>
-      <c r="C19" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D19" s="12">
         <v>0.77083333333333337</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="11">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1043,22 +1043,22 @@
       <c r="B20" s="2">
         <v>40904</v>
       </c>
-      <c r="C20" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.75</v>
+      <c r="C20" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="11">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,22 +1068,22 @@
       <c r="B21" s="2">
         <v>40905</v>
       </c>
-      <c r="C21" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.75</v>
+      <c r="C21" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,22 +1093,22 @@
       <c r="B22" s="2">
         <v>40906</v>
       </c>
-      <c r="C22" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.75</v>
+      <c r="C22" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="11">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,21 +1118,21 @@
       <c r="B23" s="2">
         <v>40907</v>
       </c>
-      <c r="C23" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.60416666666666663</v>
+      <c r="C23" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G23" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -1140,24 +1140,24 @@
       <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="15">
         <f>SUM(F2:F23)</f>
-        <v>173</v>
-      </c>
-      <c r="G24" s="10">
+        <v>136</v>
+      </c>
+      <c r="G24" s="16">
         <f>SUM(G2:G23)/60</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="17">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
-      </c>
-      <c r="G25" s="17"/>
+        <v>141</v>
+      </c>
+      <c r="G25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +255,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,7 +706,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D6" s="12">
-        <v>0.81944444444444453</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -711,7 +717,7 @@
       </c>
       <c r="G6" s="11">
         <f>IF(MINUTE(D6)-MINUTE(C6)&lt;0,MINUTE(D6)-MINUTE(C6)+60,MINUTE(D6)-MINUTE(C6))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
@@ -727,7 +733,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D7" s="12">
-        <v>0.82291666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -738,7 +744,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" ref="G7:G8" si="3">IF(MINUTE(D7)-MINUTE(C7)&lt;0,MINUTE(D7)-MINUTE(C7)+60,MINUTE(D7)-MINUTE(C7))</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,7 +784,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D9" s="12">
-        <v>0.81944444444444453</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -789,7 +795,7 @@
       </c>
       <c r="G9" s="11">
         <f>IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,18 +832,18 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="12">
-        <v>0.82291666666666663</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" ref="F11:F23" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
+        <f t="shared" ref="F11:F24" si="4">IF(MINUTE(C11)&lt;=MINUTE(D11),IF(E11="NO",HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1),IF(E11="NO",HOUR(D11)-HOUR(C11)-1,HOUR(D11)-HOUR(C11)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" ref="G11:G23" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
-        <v>0</v>
+        <f t="shared" ref="G11:G24" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,7 +882,7 @@
         <v>0.46875</v>
       </c>
       <c r="D13" s="12">
-        <v>0.82291666666666663</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -887,7 +893,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -924,14 +930,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D15" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="5"/>
@@ -949,18 +955,18 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D16" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,14 +980,14 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="12">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="5"/>
@@ -1022,18 +1028,18 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D19" s="12">
-        <v>0.77083333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1050,7 @@
         <v>40904</v>
       </c>
       <c r="C20" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D20" s="12">
         <v>0.83333333333333337</v>
@@ -1058,7 +1064,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1075,7 @@
         <v>40905</v>
       </c>
       <c r="C21" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D21" s="12">
         <v>0.83333333333333337</v>
@@ -1083,7 +1089,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,7 +1100,7 @@
         <v>40906</v>
       </c>
       <c r="C22" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D22" s="12">
         <v>0.83333333333333337</v>
@@ -1104,11 +1110,11 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,49 +1125,74 @@
         <v>40907</v>
       </c>
       <c r="C23" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D23" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40908</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="15">
-        <f>SUM(F2:F23)</f>
-        <v>136</v>
-      </c>
-      <c r="G24" s="16">
-        <f>SUM(G2:G23)/60</f>
+      <c r="F25" s="15">
+        <f>SUM(F2:F24)</f>
+        <v>153</v>
+      </c>
+      <c r="G25" s="16">
+        <f>SUM(G2:G24)/60</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="17">
-        <f>ROUND(SUM(F24:G24),0)</f>
-        <v>141</v>
-      </c>
-      <c r="G25" s="18"/>
+      <c r="F26" s="18">
+        <f>ROUND(SUM(F25:G25),0)</f>
+        <v>158</v>
+      </c>
+      <c r="G26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -733,7 +733,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D7" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" ref="G7:G8" si="3">IF(MINUTE(D7)-MINUTE(C7)&lt;0,MINUTE(D7)-MINUTE(C7)+60,MINUTE(D7)-MINUTE(C7))</f>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D11" s="12">
-        <v>0.82986111111111116</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>16</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" ref="G11:G24" si="5">IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1050,21 +1050,21 @@
         <v>40904</v>
       </c>
       <c r="C20" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D20" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,21 +1075,21 @@
         <v>40905</v>
       </c>
       <c r="C21" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D21" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>40906</v>
       </c>
       <c r="C22" s="12">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D22" s="12">
         <v>0.83333333333333337</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="5"/>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="F25" s="15">
         <f>SUM(F2:F24)</f>
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" s="16">
         <f>SUM(G2:G24)/60</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="F26" s="18">
         <f>ROUND(SUM(F25:G25),0)</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="19"/>
     </row>

--- a/Horas/Diciembre.xlsx
+++ b/Horas/Diciembre.xlsx
@@ -706,7 +706,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D6" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="G6" s="11">
         <f>IF(MINUTE(D6)-MINUTE(C6)&lt;0,MINUTE(D6)-MINUTE(C6)+60,MINUTE(D6)-MINUTE(C6))</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
@@ -784,7 +784,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D9" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="G9" s="11">
         <f>IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,18 +1078,18 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D21" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,11 +1173,11 @@
       </c>
       <c r="F25" s="15">
         <f>SUM(F2:F24)</f>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G25" s="16">
         <f>SUM(G2:G24)/60</f>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="F26" s="18">
         <f>ROUND(SUM(F25:G25),0)</f>
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="19"/>
     </row>
